--- a/Team-Data/2011-12/2-19-2011-12.xlsx
+++ b/Team-Data/2011-12/2-19-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>2.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -762,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>14</v>
@@ -789,13 +856,13 @@
         <v>24</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>3</v>
@@ -816,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.517</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J3" t="n">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.456</v>
@@ -878,22 +945,22 @@
         <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O3" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T3" t="n">
         <v>38.8</v>
@@ -902,46 +969,46 @@
         <v>22</v>
       </c>
       <c r="V3" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
         <v>5.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="AA3" t="n">
         <v>19.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.5</v>
+        <v>89.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -959,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -980,28 +1047,28 @@
         <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
         <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -1030,85 +1097,85 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.129</v>
+        <v>0.133</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="J4" t="n">
-        <v>80.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.417</v>
+        <v>0.418</v>
       </c>
       <c r="L4" t="n">
         <v>4.3</v>
       </c>
       <c r="M4" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="N4" t="n">
-        <v>0.302</v>
+        <v>0.305</v>
       </c>
       <c r="O4" t="n">
         <v>15.2</v>
       </c>
       <c r="P4" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.726</v>
+        <v>0.731</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T4" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="U4" t="n">
         <v>19.3</v>
       </c>
       <c r="V4" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
         <v>5.7</v>
       </c>
       <c r="X4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.5</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-14.3</v>
+        <v>-13.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,13 +1187,13 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
@@ -1138,19 +1205,19 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="n">
         <v>22</v>
@@ -1162,19 +1229,19 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>30</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1372,7 @@
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1317,19 +1384,19 @@
         <v>18</v>
       </c>
       <c r="AM5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
         <v>16</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1365,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.414</v>
+        <v>0.393</v>
       </c>
       <c r="H6" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.428</v>
+        <v>0.43</v>
       </c>
       <c r="L6" t="n">
         <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O6" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.697</v>
+        <v>0.695</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T6" t="n">
-        <v>43.3</v>
+        <v>42.9</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
@@ -1484,31 +1551,31 @@
         <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1520,7 +1587,7 @@
         <v>19</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
         <v>18</v>
@@ -1541,10 +1608,10 @@
         <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.625</v>
+        <v>0.645</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
@@ -1600,43 +1667,43 @@
         <v>0.441</v>
       </c>
       <c r="L7" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>21.5</v>
+        <v>21.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O7" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R7" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S7" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="T7" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U7" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V7" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W7" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y7" t="n">
         <v>4.4</v>
@@ -1645,16 +1712,16 @@
         <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
@@ -1672,13 +1739,13 @@
         <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
         <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM7" t="n">
         <v>5</v>
@@ -1687,10 +1754,10 @@
         <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
@@ -1699,19 +1766,19 @@
         <v>22</v>
       </c>
       <c r="AS7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
         <v>9</v>
@@ -1720,7 +1787,7 @@
         <v>6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.531</v>
+        <v>0.548</v>
       </c>
       <c r="H8" t="n">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="J8" t="n">
-        <v>80.7</v>
+        <v>80</v>
       </c>
       <c r="K8" t="n">
         <v>0.474</v>
@@ -1785,82 +1852,82 @@
         <v>6.8</v>
       </c>
       <c r="M8" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="O8" t="n">
         <v>20.7</v>
       </c>
-      <c r="N8" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="O8" t="n">
-        <v>20.5</v>
-      </c>
       <c r="P8" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.735</v>
+        <v>0.734</v>
       </c>
       <c r="R8" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
         <v>32.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V8" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.8</v>
+        <v>103.4</v>
       </c>
       <c r="AC8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
         <v>3</v>
       </c>
-      <c r="AD8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>2</v>
-      </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
@@ -1878,22 +1945,22 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS8" t="n">
         <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
         <v>15</v>
@@ -1902,13 +1969,13 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -1940,97 +2007,97 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.333</v>
+        <v>0.313</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="J9" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.43</v>
+        <v>0.432</v>
       </c>
       <c r="L9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M9" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>0.34</v>
+        <v>0.335</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>16.4</v>
       </c>
       <c r="P9" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.767</v>
+        <v>0.776</v>
       </c>
       <c r="R9" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S9" t="n">
         <v>27.8</v>
       </c>
       <c r="T9" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U9" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="V9" t="n">
         <v>16</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X9" t="n">
         <v>3.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z9" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AA9" t="n">
         <v>19.2</v>
       </c>
-      <c r="AA9" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AB9" t="n">
-        <v>88.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6.7</v>
+        <v>-7.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
         <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2039,28 +2106,28 @@
         <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS9" t="n">
         <v>29</v>
@@ -2075,25 +2142,25 @@
         <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BB9" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC9" t="n">
         <v>27</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -2200,22 +2267,22 @@
         <v>-1.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
@@ -2236,7 +2303,7 @@
         <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ10" t="n">
         <v>15</v>
@@ -2260,7 +2327,7 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
@@ -2275,7 +2342,7 @@
         <v>4</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -2304,106 +2371,106 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
         <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
-        <v>84.2</v>
+        <v>84.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L11" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.357</v>
+        <v>0.352</v>
       </c>
       <c r="O11" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="P11" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="R11" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S11" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T11" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W11" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z11" t="n">
         <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2412,31 +2479,31 @@
         <v>11</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
       </c>
       <c r="AP11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV11" t="n">
         <v>15</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
@@ -2445,10 +2512,10 @@
         <v>18</v>
       </c>
       <c r="AY11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>19</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>18</v>
       </c>
       <c r="BA11" t="n">
         <v>29</v>
@@ -2457,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="BC11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -2486,106 +2553,106 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.613</v>
+        <v>0.6</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J12" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.428</v>
+        <v>0.426</v>
       </c>
       <c r="L12" t="n">
         <v>5.6</v>
       </c>
       <c r="M12" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N12" t="n">
         <v>0.361</v>
       </c>
       <c r="O12" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P12" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R12" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y12" t="n">
         <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>94.59999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
         <v>23</v>
@@ -2594,13 +2661,13 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>5</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
@@ -2609,16 +2676,16 @@
         <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW12" t="n">
         <v>9</v>
@@ -2627,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA12" t="n">
         <v>10</v>
       </c>
       <c r="BB12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2788,13 +2855,13 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT13" t="n">
         <v>13</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>14</v>
       </c>
       <c r="AU13" t="n">
         <v>11</v>
@@ -2803,16 +2870,16 @@
         <v>5</v>
       </c>
       <c r="AW13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
         <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.581</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2874,37 +2941,37 @@
         <v>0.45</v>
       </c>
       <c r="L14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>16.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.297</v>
+        <v>0.301</v>
       </c>
       <c r="O14" t="n">
         <v>16.7</v>
       </c>
       <c r="P14" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R14" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T14" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U14" t="n">
         <v>20.9</v>
       </c>
       <c r="V14" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W14" t="n">
         <v>5.8</v>
@@ -2916,28 +2983,28 @@
         <v>3.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA14" t="n">
         <v>19.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>14</v>
@@ -2949,7 +3016,7 @@
         <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2958,19 +3025,19 @@
         <v>19</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2979,10 +3046,10 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW14" t="n">
         <v>29</v>
@@ -3000,10 +3067,10 @@
         <v>15</v>
       </c>
       <c r="BB14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF15" t="n">
         <v>12</v>
@@ -3140,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3152,7 +3219,7 @@
         <v>13</v>
       </c>
       <c r="AR15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS15" t="n">
         <v>23</v>
@@ -3185,7 +3252,7 @@
         <v>20</v>
       </c>
       <c r="BC15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="n">
         <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.781</v>
+        <v>0.774</v>
       </c>
       <c r="H16" t="n">
         <v>48.8</v>
@@ -3235,22 +3302,22 @@
         <v>78.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.485</v>
+        <v>0.486</v>
       </c>
       <c r="L16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4</v>
+        <v>0.404</v>
       </c>
       <c r="O16" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="P16" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="Q16" t="n">
         <v>0.782</v>
@@ -3259,19 +3326,19 @@
         <v>9.9</v>
       </c>
       <c r="S16" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="T16" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W16" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
         <v>4.8</v>
@@ -3283,19 +3350,19 @@
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>103.3</v>
+        <v>103.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
         <v>1</v>
@@ -3334,13 +3401,13 @@
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>13</v>
@@ -3355,19 +3422,19 @@
         <v>20</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
       </c>
       <c r="BB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC16" t="n">
         <v>2</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>1</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
         <v>18</v>
       </c>
       <c r="G17" t="n">
-        <v>0.419</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.424</v>
+        <v>0.426</v>
       </c>
       <c r="L17" t="n">
         <v>6.9</v>
@@ -3426,55 +3493,55 @@
         <v>20.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O17" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P17" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0.791</v>
       </c>
       <c r="R17" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T17" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="U17" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.7</v>
+        <v>-2</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3486,43 +3553,43 @@
         <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM17" t="n">
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO17" t="n">
         <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="n">
         <v>2</v>
       </c>
       <c r="AR17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
         <v>27</v>
       </c>
       <c r="AT17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
@@ -3534,13 +3601,13 @@
         <v>14</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
         <v>16</v>
@@ -3549,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.484</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3596,46 +3663,46 @@
         <v>35.1</v>
       </c>
       <c r="J18" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M18" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.32</v>
+        <v>0.324</v>
       </c>
       <c r="O18" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P18" t="n">
         <v>26</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S18" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T18" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U18" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="V18" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W18" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X18" t="n">
         <v>4.3</v>
@@ -3644,19 +3711,19 @@
         <v>5.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC18" t="n">
         <v>1.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3665,7 +3732,7 @@
         <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
         <v>28</v>
@@ -3674,7 +3741,7 @@
         <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>20</v>
@@ -3686,7 +3753,7 @@
         <v>13</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3695,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
@@ -3710,10 +3777,10 @@
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -3722,7 +3789,7 @@
         <v>22</v>
       </c>
       <c r="AZ18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA18" t="n">
         <v>3</v>
@@ -3731,7 +3798,7 @@
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -3760,97 +3827,97 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>0.273</v>
+        <v>0.281</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="J19" t="n">
-        <v>79.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.422</v>
+        <v>0.425</v>
       </c>
       <c r="L19" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M19" t="n">
         <v>24.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.351</v>
+        <v>0.355</v>
       </c>
       <c r="O19" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P19" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.774</v>
+        <v>0.779</v>
       </c>
       <c r="R19" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
         <v>27</v>
       </c>
       <c r="T19" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="U19" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V19" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W19" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y19" t="n">
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.3</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>-6.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3877,7 +3944,7 @@
         <v>18</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
         <v>6</v>
@@ -3892,7 +3959,7 @@
         <v>20</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>26</v>
@@ -3901,10 +3968,10 @@
         <v>25</v>
       </c>
       <c r="AY19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA19" t="n">
         <v>13</v>
@@ -3913,7 +3980,7 @@
         <v>24</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4038,7 +4105,7 @@
         <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
         <v>18</v>
@@ -4053,7 +4120,7 @@
         <v>24</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4065,7 +4132,7 @@
         <v>15</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4074,10 +4141,10 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX20" t="n">
         <v>21</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -4124,85 +4191,85 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
         <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.484</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="J21" t="n">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L21" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="M21" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.303</v>
+        <v>0.299</v>
       </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="P21" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T21" t="n">
         <v>41.6</v>
       </c>
       <c r="U21" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V21" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W21" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X21" t="n">
         <v>4.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AA21" t="n">
         <v>22.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
@@ -4211,34 +4278,34 @@
         <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>20</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>21</v>
-      </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
       </c>
       <c r="AP21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ21" t="n">
         <v>11</v>
@@ -4247,10 +4314,10 @@
         <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4265,10 +4332,10 @@
         <v>29</v>
       </c>
       <c r="AY21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA21" t="n">
         <v>2</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -4306,52 +4373,52 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" t="n">
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.774</v>
+        <v>0.767</v>
       </c>
       <c r="H22" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="J22" t="n">
-        <v>77.8</v>
+        <v>77.3</v>
       </c>
       <c r="K22" t="n">
         <v>0.475</v>
       </c>
       <c r="L22" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="N22" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O22" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.795</v>
+        <v>0.794</v>
       </c>
       <c r="R22" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="S22" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="T22" t="n">
         <v>43.5</v>
@@ -4360,31 +4427,31 @@
         <v>18.3</v>
       </c>
       <c r="V22" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="W22" t="n">
         <v>7.7</v>
       </c>
       <c r="X22" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA22" t="n">
         <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.3</v>
+        <v>101.6</v>
       </c>
       <c r="AC22" t="n">
         <v>5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK22" t="n">
         <v>2</v>
@@ -4429,10 +4496,10 @@
         <v>21</v>
       </c>
       <c r="AS22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT22" t="n">
         <v>4</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>0.625</v>
+        <v>0.645</v>
       </c>
       <c r="H23" t="n">
         <v>48.5</v>
       </c>
       <c r="I23" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="J23" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L23" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="M23" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="N23" t="n">
         <v>0.391</v>
       </c>
       <c r="O23" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P23" t="n">
         <v>24.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.653</v>
+        <v>0.658</v>
       </c>
       <c r="R23" t="n">
         <v>10.6</v>
@@ -4536,37 +4603,37 @@
         <v>32.6</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
         <v>15.1</v>
       </c>
       <c r="W23" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4608,34 +4675,34 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
         <v>7</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU23" t="n">
         <v>19</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
       </c>
       <c r="AX23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ23" t="n">
         <v>5</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -4670,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>0.625</v>
+        <v>0.645</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J24" t="n">
-        <v>83.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K24" t="n">
         <v>0.453</v>
       </c>
       <c r="L24" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M24" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O24" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="P24" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S24" t="n">
         <v>33.2</v>
       </c>
       <c r="T24" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U24" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="V24" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="W24" t="n">
         <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>5</v>
@@ -4760,13 +4827,13 @@
         <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>9</v>
@@ -4775,7 +4842,7 @@
         <v>20</v>
       </c>
       <c r="AM24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN24" t="n">
         <v>8</v>
@@ -4784,22 +4851,22 @@
         <v>30</v>
       </c>
       <c r="AP24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
         <v>29</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
         <v>19</v>
       </c>
       <c r="G25" t="n">
-        <v>0.406</v>
+        <v>0.387</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J25" t="n">
         <v>81.3</v>
@@ -4885,13 +4952,13 @@
         <v>0.344</v>
       </c>
       <c r="O25" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="P25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="R25" t="n">
         <v>9.9</v>
@@ -4903,13 +4970,13 @@
         <v>40.9</v>
       </c>
       <c r="U25" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V25" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X25" t="n">
         <v>5.3</v>
@@ -4918,19 +4985,19 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="AA25" t="n">
         <v>19</v>
       </c>
-      <c r="AA25" t="n">
-        <v>19.1</v>
-      </c>
       <c r="AB25" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>-3.1</v>
+        <v>-3.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4939,7 +5006,7 @@
         <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
         <v>28</v>
@@ -4966,10 +5033,10 @@
         <v>29</v>
       </c>
       <c r="AP25" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
         <v>27</v>
@@ -4981,28 +5048,28 @@
         <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW25" t="n">
         <v>22</v>
       </c>
       <c r="AX25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="n">
         <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
         <v>22</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>4.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
@@ -5130,7 +5197,7 @@
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK26" t="n">
         <v>16</v>
@@ -5142,13 +5209,13 @@
         <v>14</v>
       </c>
       <c r="AN26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
       </c>
       <c r="AP26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ26" t="n">
         <v>5</v>
@@ -5157,13 +5224,13 @@
         <v>16</v>
       </c>
       <c r="AS26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT26" t="n">
         <v>17</v>
       </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
@@ -5178,7 +5245,7 @@
         <v>18</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>0.323</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
@@ -5234,19 +5301,19 @@
         <v>34.3</v>
       </c>
       <c r="J27" t="n">
-        <v>84.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.408</v>
+        <v>0.409</v>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M27" t="n">
         <v>19.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.305</v>
+        <v>0.308</v>
       </c>
       <c r="O27" t="n">
         <v>18.4</v>
@@ -5255,34 +5322,34 @@
         <v>24.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R27" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="S27" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T27" t="n">
-        <v>43.7</v>
+        <v>43.4</v>
       </c>
       <c r="U27" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="V27" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W27" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y27" t="n">
         <v>6.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA27" t="n">
         <v>20.9</v>
@@ -5291,28 +5358,28 @@
         <v>93.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
@@ -5333,7 +5400,7 @@
         <v>9</v>
       </c>
       <c r="AQ27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5342,19 +5409,19 @@
         <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5488,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI28" t="n">
         <v>4</v>
@@ -5509,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
@@ -5518,7 +5585,7 @@
         <v>27</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>10</v>
@@ -5533,19 +5600,19 @@
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX28" t="n">
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5670,7 +5737,7 @@
         <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5679,7 +5746,7 @@
         <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
         <v>22</v>
@@ -5700,13 +5767,13 @@
         <v>14</v>
       </c>
       <c r="AR29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
         <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
         <v>17</v>
@@ -5721,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5730,7 +5797,7 @@
         <v>26</v>
       </c>
       <c r="BB29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC29" t="n">
         <v>25</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -5762,133 +5829,133 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.517</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J30" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L30" t="n">
         <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.298</v>
+        <v>0.296</v>
       </c>
       <c r="O30" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P30" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R30" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T30" t="n">
         <v>42.4</v>
       </c>
       <c r="U30" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="V30" t="n">
         <v>14.2</v>
       </c>
       <c r="W30" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA30" t="n">
         <v>21.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.4</v>
+        <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
         <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
       </c>
       <c r="AK30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>16</v>
@@ -5897,7 +5964,7 @@
         <v>6</v>
       </c>
       <c r="AW30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX30" t="n">
         <v>3</v>
@@ -5909,7 +5976,7 @@
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
@@ -6043,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6061,7 +6128,7 @@
         <v>15</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
         <v>12</v>
@@ -6073,13 +6140,13 @@
         <v>23</v>
       </c>
       <c r="AU31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-19-2011-12</t>
+          <t>2012-02-19</t>
         </is>
       </c>
     </row>
